--- a/ReportTemplate/ReportDetailed.xlsx
+++ b/ReportTemplate/ReportDetailed.xlsx
@@ -98,57 +98,95 @@
     <t>预留2</t>
   </si>
   <si>
+    <t>&amp;=ReportDetailed.PositionName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.PostRankName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.SocialSecurityNumber</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.HighSubsidies</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.CommunicationSubsidy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.NaturalYearEndPerformance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.AnnualYearEndPerformance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.Reserve1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.Reserve2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=&amp;=ROUND((s{r}+v{r})/12,2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.WorkTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>&amp;=ReportDetailed.January</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.February</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.March</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.April</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.May</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.June</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.July</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.August</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.September</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ReportDetailed.October</t>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.January</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.PositionName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.PostRankName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.WorkTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.SocialSecurityNumber</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=ReportDetailed.November</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -157,34 +195,6 @@
   </si>
   <si>
     <t>&amp;=ReportDetailed.December</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.HighSubsidies</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.CommunicationSubsidy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.NaturalYearEndPerformance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.AnnualYearEndPerformance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.Reserve1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ReportDetailed.Reserve2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=&amp;=ROUND((s{r}+v{r})/12,2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1071,82 +1081,82 @@
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
     </row>
-    <row r="3" spans="1:250" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:250" s="3" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="K3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="Y3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Z3" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>

--- a/ReportTemplate/ReportDetailed.xlsx
+++ b/ReportTemplate/ReportDetailed.xlsx
@@ -206,7 +206,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +239,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -289,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -351,6 +344,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -359,69 +361,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +729,7 @@
   <dimension ref="A1:IP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,651 +737,651 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" s="3" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:250" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
-      <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
-      <c r="EH1" s="2"/>
-      <c r="EI1" s="2"/>
-      <c r="EJ1" s="2"/>
-      <c r="EK1" s="2"/>
-      <c r="EL1" s="2"/>
-      <c r="EM1" s="2"/>
-      <c r="EN1" s="2"/>
-      <c r="EO1" s="2"/>
-      <c r="EP1" s="2"/>
-      <c r="EQ1" s="2"/>
-      <c r="ER1" s="2"/>
-      <c r="ES1" s="2"/>
-      <c r="ET1" s="2"/>
-      <c r="EU1" s="2"/>
-      <c r="EV1" s="2"/>
-      <c r="EW1" s="2"/>
-      <c r="EX1" s="2"/>
-      <c r="EY1" s="2"/>
-      <c r="EZ1" s="2"/>
-      <c r="FA1" s="2"/>
-      <c r="FB1" s="2"/>
-      <c r="FC1" s="2"/>
-      <c r="FD1" s="2"/>
-      <c r="FE1" s="2"/>
-      <c r="FF1" s="2"/>
-      <c r="FG1" s="2"/>
-      <c r="FH1" s="2"/>
-      <c r="FI1" s="2"/>
-      <c r="FJ1" s="2"/>
-      <c r="FK1" s="2"/>
-      <c r="FL1" s="2"/>
-      <c r="FM1" s="2"/>
-      <c r="FN1" s="2"/>
-      <c r="FO1" s="2"/>
-      <c r="FP1" s="2"/>
-      <c r="FQ1" s="2"/>
-      <c r="FR1" s="2"/>
-      <c r="FS1" s="2"/>
-      <c r="FT1" s="2"/>
-      <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
-      <c r="FW1" s="2"/>
-      <c r="FX1" s="2"/>
-      <c r="FY1" s="2"/>
-      <c r="FZ1" s="2"/>
-      <c r="GA1" s="2"/>
-      <c r="GB1" s="2"/>
-      <c r="GC1" s="2"/>
-      <c r="GD1" s="2"/>
-      <c r="GE1" s="2"/>
-      <c r="GF1" s="2"/>
-      <c r="GG1" s="2"/>
-      <c r="GH1" s="2"/>
-      <c r="GI1" s="2"/>
-      <c r="GJ1" s="2"/>
-      <c r="GK1" s="2"/>
-      <c r="GL1" s="2"/>
-      <c r="GM1" s="2"/>
-      <c r="GN1" s="2"/>
-      <c r="GO1" s="2"/>
-      <c r="GP1" s="2"/>
-      <c r="GQ1" s="2"/>
-      <c r="GR1" s="2"/>
-      <c r="GS1" s="2"/>
-      <c r="GT1" s="2"/>
-      <c r="GU1" s="2"/>
-      <c r="GV1" s="2"/>
-      <c r="GW1" s="2"/>
-      <c r="GX1" s="2"/>
-      <c r="GY1" s="2"/>
-      <c r="GZ1" s="2"/>
-      <c r="HA1" s="2"/>
-      <c r="HB1" s="2"/>
-      <c r="HC1" s="2"/>
-      <c r="HD1" s="2"/>
-      <c r="HE1" s="2"/>
-      <c r="HF1" s="2"/>
-      <c r="HG1" s="2"/>
-      <c r="HH1" s="2"/>
-      <c r="HI1" s="2"/>
-      <c r="HJ1" s="2"/>
-      <c r="HK1" s="2"/>
-      <c r="HL1" s="2"/>
-      <c r="HM1" s="2"/>
-      <c r="HN1" s="2"/>
-      <c r="HO1" s="2"/>
-      <c r="HP1" s="2"/>
-      <c r="HQ1" s="2"/>
-      <c r="HR1" s="2"/>
-      <c r="HS1" s="2"/>
-      <c r="HT1" s="2"/>
-      <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
-      <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
-      <c r="HZ1" s="2"/>
-      <c r="IA1" s="2"/>
-      <c r="IB1" s="2"/>
-      <c r="IC1" s="2"/>
-      <c r="ID1" s="2"/>
-      <c r="IE1" s="2"/>
-      <c r="IF1" s="2"/>
-      <c r="IG1" s="2"/>
-      <c r="IH1" s="2"/>
-      <c r="II1" s="2"/>
-      <c r="IJ1" s="2"/>
-      <c r="IK1" s="2"/>
-      <c r="IL1" s="2"/>
-      <c r="IM1" s="2"/>
-      <c r="IN1" s="2"/>
-      <c r="IO1" s="2"/>
-      <c r="IP1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
+      <c r="FY1" s="1"/>
+      <c r="FZ1" s="1"/>
+      <c r="GA1" s="1"/>
+      <c r="GB1" s="1"/>
+      <c r="GC1" s="1"/>
+      <c r="GD1" s="1"/>
+      <c r="GE1" s="1"/>
+      <c r="GF1" s="1"/>
+      <c r="GG1" s="1"/>
+      <c r="GH1" s="1"/>
+      <c r="GI1" s="1"/>
+      <c r="GJ1" s="1"/>
+      <c r="GK1" s="1"/>
+      <c r="GL1" s="1"/>
+      <c r="GM1" s="1"/>
+      <c r="GN1" s="1"/>
+      <c r="GO1" s="1"/>
+      <c r="GP1" s="1"/>
+      <c r="GQ1" s="1"/>
+      <c r="GR1" s="1"/>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
+      <c r="HM1" s="1"/>
+      <c r="HN1" s="1"/>
+      <c r="HO1" s="1"/>
+      <c r="HP1" s="1"/>
+      <c r="HQ1" s="1"/>
+      <c r="HR1" s="1"/>
+      <c r="HS1" s="1"/>
+      <c r="HT1" s="1"/>
+      <c r="HU1" s="1"/>
+      <c r="HV1" s="1"/>
+      <c r="HW1" s="1"/>
+      <c r="HX1" s="1"/>
+      <c r="HY1" s="1"/>
+      <c r="HZ1" s="1"/>
+      <c r="IA1" s="1"/>
+      <c r="IB1" s="1"/>
+      <c r="IC1" s="1"/>
+      <c r="ID1" s="1"/>
+      <c r="IE1" s="1"/>
+      <c r="IF1" s="1"/>
+      <c r="IG1" s="1"/>
+      <c r="IH1" s="1"/>
+      <c r="II1" s="1"/>
+      <c r="IJ1" s="1"/>
+      <c r="IK1" s="1"/>
+      <c r="IL1" s="1"/>
+      <c r="IM1" s="1"/>
+      <c r="IN1" s="1"/>
+      <c r="IO1" s="1"/>
+      <c r="IP1" s="1"/>
     </row>
-    <row r="2" spans="1:250" s="12" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:250" s="11" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
     </row>
-    <row r="3" spans="1:250" s="3" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:250" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="2"/>
-      <c r="CL3" s="2"/>
-      <c r="CM3" s="2"/>
-      <c r="CN3" s="2"/>
-      <c r="CO3" s="2"/>
-      <c r="CP3" s="2"/>
-      <c r="CQ3" s="2"/>
-      <c r="CR3" s="2"/>
-      <c r="CS3" s="2"/>
-      <c r="CT3" s="2"/>
-      <c r="CU3" s="2"/>
-      <c r="CV3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2"/>
-      <c r="CY3" s="2"/>
-      <c r="CZ3" s="2"/>
-      <c r="DA3" s="2"/>
-      <c r="DB3" s="2"/>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2"/>
-      <c r="DE3" s="2"/>
-      <c r="DF3" s="2"/>
-      <c r="DG3" s="2"/>
-      <c r="DH3" s="2"/>
-      <c r="DI3" s="2"/>
-      <c r="DJ3" s="2"/>
-      <c r="DK3" s="2"/>
-      <c r="DL3" s="2"/>
-      <c r="DM3" s="2"/>
-      <c r="DN3" s="2"/>
-      <c r="DO3" s="2"/>
-      <c r="DP3" s="2"/>
-      <c r="DQ3" s="2"/>
-      <c r="DR3" s="2"/>
-      <c r="DS3" s="2"/>
-      <c r="DT3" s="2"/>
-      <c r="DU3" s="2"/>
-      <c r="DV3" s="2"/>
-      <c r="DW3" s="2"/>
-      <c r="DX3" s="2"/>
-      <c r="DY3" s="2"/>
-      <c r="DZ3" s="2"/>
-      <c r="EA3" s="2"/>
-      <c r="EB3" s="2"/>
-      <c r="EC3" s="2"/>
-      <c r="ED3" s="2"/>
-      <c r="EE3" s="2"/>
-      <c r="EF3" s="2"/>
-      <c r="EG3" s="2"/>
-      <c r="EH3" s="2"/>
-      <c r="EI3" s="2"/>
-      <c r="EJ3" s="2"/>
-      <c r="EK3" s="2"/>
-      <c r="EL3" s="2"/>
-      <c r="EM3" s="2"/>
-      <c r="EN3" s="2"/>
-      <c r="EO3" s="2"/>
-      <c r="EP3" s="2"/>
-      <c r="EQ3" s="2"/>
-      <c r="ER3" s="2"/>
-      <c r="ES3" s="2"/>
-      <c r="ET3" s="2"/>
-      <c r="EU3" s="2"/>
-      <c r="EV3" s="2"/>
-      <c r="EW3" s="2"/>
-      <c r="EX3" s="2"/>
-      <c r="EY3" s="2"/>
-      <c r="EZ3" s="2"/>
-      <c r="FA3" s="2"/>
-      <c r="FB3" s="2"/>
-      <c r="FC3" s="2"/>
-      <c r="FD3" s="2"/>
-      <c r="FE3" s="2"/>
-      <c r="FF3" s="2"/>
-      <c r="FG3" s="2"/>
-      <c r="FH3" s="2"/>
-      <c r="FI3" s="2"/>
-      <c r="FJ3" s="2"/>
-      <c r="FK3" s="2"/>
-      <c r="FL3" s="2"/>
-      <c r="FM3" s="2"/>
-      <c r="FN3" s="2"/>
-      <c r="FO3" s="2"/>
-      <c r="FP3" s="2"/>
-      <c r="FQ3" s="2"/>
-      <c r="FR3" s="2"/>
-      <c r="FS3" s="2"/>
-      <c r="FT3" s="2"/>
-      <c r="FU3" s="2"/>
-      <c r="FV3" s="2"/>
-      <c r="FW3" s="2"/>
-      <c r="FX3" s="2"/>
-      <c r="FY3" s="2"/>
-      <c r="FZ3" s="2"/>
-      <c r="GA3" s="2"/>
-      <c r="GB3" s="2"/>
-      <c r="GC3" s="2"/>
-      <c r="GD3" s="2"/>
-      <c r="GE3" s="2"/>
-      <c r="GF3" s="2"/>
-      <c r="GG3" s="2"/>
-      <c r="GH3" s="2"/>
-      <c r="GI3" s="2"/>
-      <c r="GJ3" s="2"/>
-      <c r="GK3" s="2"/>
-      <c r="GL3" s="2"/>
-      <c r="GM3" s="2"/>
-      <c r="GN3" s="2"/>
-      <c r="GO3" s="2"/>
-      <c r="GP3" s="2"/>
-      <c r="GQ3" s="2"/>
-      <c r="GR3" s="2"/>
-      <c r="GS3" s="2"/>
-      <c r="GT3" s="2"/>
-      <c r="GU3" s="2"/>
-      <c r="GV3" s="2"/>
-      <c r="GW3" s="2"/>
-      <c r="GX3" s="2"/>
-      <c r="GY3" s="2"/>
-      <c r="GZ3" s="2"/>
-      <c r="HA3" s="2"/>
-      <c r="HB3" s="2"/>
-      <c r="HC3" s="2"/>
-      <c r="HD3" s="2"/>
-      <c r="HE3" s="2"/>
-      <c r="HF3" s="2"/>
-      <c r="HG3" s="2"/>
-      <c r="HH3" s="2"/>
-      <c r="HI3" s="2"/>
-      <c r="HJ3" s="2"/>
-      <c r="HK3" s="2"/>
-      <c r="HL3" s="2"/>
-      <c r="HM3" s="2"/>
-      <c r="HN3" s="2"/>
-      <c r="HO3" s="2"/>
-      <c r="HP3" s="2"/>
-      <c r="HQ3" s="2"/>
-      <c r="HR3" s="2"/>
-      <c r="HS3" s="2"/>
-      <c r="HT3" s="2"/>
-      <c r="HU3" s="2"/>
-      <c r="HV3" s="2"/>
-      <c r="HW3" s="2"/>
-      <c r="HX3" s="2"/>
-      <c r="HY3" s="2"/>
-      <c r="HZ3" s="2"/>
-      <c r="IA3" s="2"/>
-      <c r="IB3" s="2"/>
-      <c r="IC3" s="2"/>
-      <c r="ID3" s="2"/>
-      <c r="IE3" s="2"/>
-      <c r="IF3" s="2"/>
-      <c r="IG3" s="2"/>
-      <c r="IH3" s="2"/>
-      <c r="II3" s="2"/>
-      <c r="IJ3" s="2"/>
-      <c r="IK3" s="2"/>
-      <c r="IL3" s="2"/>
-      <c r="IM3" s="2"/>
-      <c r="IN3" s="2"/>
-      <c r="IO3" s="2"/>
-      <c r="IP3" s="2"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReportTemplate/ReportDetailed.xlsx
+++ b/ReportTemplate/ReportDetailed.xlsx
@@ -31,9 +31,6 @@
     <t>所在岗级月数</t>
   </si>
   <si>
-    <t>社保编号</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -195,6 +192,10 @@
   </si>
   <si>
     <t>&amp;=ReportDetailed.December</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +730,7 @@
   <dimension ref="A1:IP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,70 +1006,70 @@
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -1080,79 +1081,79 @@
     <row r="3" spans="1:250" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="X3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>

--- a/ReportTemplate/ReportDetailed.xlsx
+++ b/ReportTemplate/ReportDetailed.xlsx
@@ -362,7 +362,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,20 +406,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -729,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -739,34 +742,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:250" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -1134,30 +1137,30 @@
       <c r="S3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="20" t="s">
         <v>35</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="16"/>
+      <c r="AC3" s="15"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
